--- a/CONTRERAS, SARAH JANE.xlsx
+++ b/CONTRERAS, SARAH JANE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC96BA3-BC7F-4461-A370-9C0CCBD50244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -207,12 +206,21 @@
   </si>
   <si>
     <t>7/25 - 29/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/9,15/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -852,7 +860,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -898,25 +905,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1223,34 +1230,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A4"/>
+      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1271,7 +1278,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1290,7 +1297,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1311,7 +1318,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
@@ -1326,7 +1333,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="32"/>
@@ -1339,7 +1346,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="50" t="s">
@@ -1356,7 +1363,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1400,7 +1407,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>43.75</v>
+        <v>52.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1410,12 +1417,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>67.75</v>
+        <v>74.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>44</v>
       </c>
@@ -1437,7 +1444,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
         <v>43101</v>
       </c>
@@ -1457,7 +1464,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="43">
         <v>43132</v>
       </c>
@@ -1477,7 +1484,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="43">
         <v>43160</v>
       </c>
@@ -1503,7 +1510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="21"/>
       <c r="C14" s="14">
@@ -1521,7 +1528,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="43">
         <v>43191</v>
       </c>
@@ -1541,7 +1548,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="44">
         <v>43221</v>
       </c>
@@ -1561,7 +1568,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="44">
         <v>43252</v>
       </c>
@@ -1581,7 +1588,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="44">
         <v>43282</v>
       </c>
@@ -1601,7 +1608,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="44">
         <v>43313</v>
       </c>
@@ -1621,7 +1628,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="44">
         <v>43344</v>
       </c>
@@ -1641,7 +1648,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="44">
         <v>43374</v>
       </c>
@@ -1661,7 +1668,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="44">
         <v>43405</v>
       </c>
@@ -1681,7 +1688,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="44">
         <v>43435</v>
       </c>
@@ -1705,7 +1712,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>48</v>
       </c>
@@ -1723,7 +1730,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="43">
         <v>43466</v>
       </c>
@@ -1743,7 +1750,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="43">
         <v>43497</v>
       </c>
@@ -1763,7 +1770,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="43">
         <v>43525</v>
       </c>
@@ -1783,7 +1790,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="43">
         <v>43556</v>
       </c>
@@ -1803,7 +1810,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="43">
         <v>43586</v>
       </c>
@@ -1823,7 +1830,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="43">
         <v>43617</v>
       </c>
@@ -1843,7 +1850,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="43">
         <v>43647</v>
       </c>
@@ -1863,7 +1870,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="43">
         <v>43678</v>
       </c>
@@ -1883,7 +1890,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="43">
         <v>43709</v>
       </c>
@@ -1903,7 +1910,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="43">
         <v>43739</v>
       </c>
@@ -1923,7 +1930,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="43">
         <v>43770</v>
       </c>
@@ -1943,7 +1950,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="43">
         <v>43800</v>
       </c>
@@ -1967,7 +1974,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
         <v>49</v>
       </c>
@@ -1985,7 +1992,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43">
         <v>43831</v>
       </c>
@@ -2005,7 +2012,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="43">
         <v>43862</v>
       </c>
@@ -2025,7 +2032,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="43">
         <v>43891</v>
       </c>
@@ -2045,7 +2052,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="43">
         <v>43922</v>
       </c>
@@ -2065,7 +2072,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="43">
         <v>43952</v>
       </c>
@@ -2085,7 +2092,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="43">
         <v>43983</v>
       </c>
@@ -2105,7 +2112,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="43">
         <v>44013</v>
       </c>
@@ -2125,7 +2132,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="43">
         <v>44044</v>
       </c>
@@ -2145,7 +2152,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="43">
         <v>44075</v>
       </c>
@@ -2165,7 +2172,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
         <v>44105</v>
       </c>
@@ -2185,7 +2192,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="43">
         <v>44136</v>
       </c>
@@ -2205,7 +2212,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="43">
         <v>44166</v>
       </c>
@@ -2229,7 +2236,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
         <v>50</v>
       </c>
@@ -2247,7 +2254,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="43">
         <v>44197</v>
       </c>
@@ -2267,7 +2274,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="43">
         <v>44228</v>
       </c>
@@ -2287,7 +2294,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="43">
         <v>44256</v>
       </c>
@@ -2307,7 +2314,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="43">
         <v>44287</v>
       </c>
@@ -2327,7 +2334,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
         <v>44317</v>
       </c>
@@ -2347,7 +2354,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="43">
         <v>44348</v>
       </c>
@@ -2367,7 +2374,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="43">
         <v>44378</v>
       </c>
@@ -2387,7 +2394,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="43">
         <v>44409</v>
       </c>
@@ -2407,7 +2414,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="43">
         <v>44440</v>
       </c>
@@ -2427,7 +2434,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="43">
         <v>44470</v>
       </c>
@@ -2447,7 +2454,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="43">
         <v>44501</v>
       </c>
@@ -2467,7 +2474,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="43">
         <v>44531</v>
       </c>
@@ -2491,7 +2498,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="49" t="s">
         <v>51</v>
       </c>
@@ -2509,7 +2516,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="43">
         <v>44562</v>
       </c>
@@ -2529,7 +2536,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="43">
         <v>44593</v>
       </c>
@@ -2549,7 +2556,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="43">
         <v>44621</v>
       </c>
@@ -2569,7 +2576,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="43">
         <v>44652</v>
       </c>
@@ -2589,7 +2596,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="43">
         <v>44682</v>
       </c>
@@ -2609,7 +2616,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="43">
         <v>44713</v>
       </c>
@@ -2629,22 +2636,24 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="43">
         <v>44743</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="14"/>
+      <c r="C70" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D70" s="42">
         <v>5</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="21"/>
-      <c r="G70" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="42"/>
       <c r="I70" s="10"/>
@@ -2653,8 +2662,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="43"/>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="43">
+        <v>44774</v>
+      </c>
       <c r="B71" s="21"/>
       <c r="C71" s="14">
         <v>1.25</v>
@@ -2671,72 +2682,96 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="43"/>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="43">
+        <v>44805</v>
+      </c>
       <c r="B72" s="21"/>
-      <c r="C72" s="14"/>
+      <c r="C72" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D72" s="42"/>
       <c r="E72" s="10"/>
       <c r="F72" s="21"/>
-      <c r="G72" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="42"/>
       <c r="I72" s="10"/>
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="43"/>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="43">
+        <v>44835</v>
+      </c>
       <c r="B73" s="21"/>
-      <c r="C73" s="14"/>
+      <c r="C73" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D73" s="42"/>
       <c r="E73" s="10"/>
       <c r="F73" s="21"/>
-      <c r="G73" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="42"/>
       <c r="I73" s="10"/>
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="43"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="43">
+        <v>44866</v>
+      </c>
       <c r="B74" s="21"/>
-      <c r="C74" s="14"/>
+      <c r="C74" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="42"/>
       <c r="E74" s="10"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="42"/>
       <c r="I74" s="10"/>
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="43"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="14"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="43">
+        <v>44896</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="42"/>
       <c r="E75" s="10"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H75" s="42"/>
+      <c r="G75" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H75" s="42">
+        <v>2</v>
+      </c>
       <c r="I75" s="10"/>
       <c r="J75" s="12"/>
-      <c r="K75" s="21"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="43"/>
+      <c r="K75" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="49" t="s">
+        <v>55</v>
+      </c>
       <c r="B76" s="21"/>
       <c r="C76" s="14"/>
       <c r="D76" s="42"/>
@@ -2751,39 +2786,47 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="43"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="43">
+        <v>44927</v>
+      </c>
       <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="42"/>
       <c r="E77" s="10"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="42"/>
       <c r="I77" s="10"/>
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="43"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="43">
+        <v>44958</v>
+      </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="42"/>
       <c r="E78" s="10"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="10"/>
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
       <c r="B79" s="21"/>
       <c r="C79" s="14"/>
@@ -2799,7 +2842,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="43"/>
       <c r="B80" s="21"/>
       <c r="C80" s="14"/>
@@ -2815,7 +2858,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="43"/>
       <c r="B81" s="21"/>
       <c r="C81" s="14"/>
@@ -2831,7 +2874,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="43"/>
       <c r="B82" s="21"/>
       <c r="C82" s="14"/>
@@ -2847,7 +2890,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
       <c r="B83" s="21"/>
       <c r="C83" s="14"/>
@@ -2863,7 +2906,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="43"/>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
@@ -2879,7 +2922,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
@@ -2895,7 +2938,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="43"/>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
@@ -2911,7 +2954,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="43"/>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
@@ -2927,7 +2970,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="43"/>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
@@ -2943,7 +2986,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
@@ -2959,7 +3002,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="43"/>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
@@ -2975,7 +3018,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
@@ -2991,7 +3034,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="43"/>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
@@ -3007,7 +3050,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
@@ -3023,7 +3066,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
@@ -3039,7 +3082,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -3055,7 +3098,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="43"/>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -3071,7 +3114,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -3087,7 +3130,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="43"/>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -3103,7 +3146,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -3119,7 +3162,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -3135,7 +3178,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -3151,7 +3194,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -3167,7 +3210,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="43"/>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -3183,7 +3226,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="43"/>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -3199,7 +3242,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="43"/>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -3215,7 +3258,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="43"/>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -3231,7 +3274,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="43"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3247,7 +3290,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="43"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3263,7 +3306,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="43"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3279,7 +3322,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="43"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3295,7 +3338,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="43"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3311,7 +3354,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="43"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3327,7 +3370,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="43"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -3343,7 +3386,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="43"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -3359,7 +3402,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="43"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -3375,7 +3418,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="43"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -3391,7 +3434,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -3407,7 +3450,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="43"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -3423,7 +3466,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="43"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -3439,7 +3482,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="43"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -3455,7 +3498,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="43"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -3471,7 +3514,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -3487,7 +3530,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="43"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -3503,7 +3546,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="43"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -3519,7 +3562,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="43"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -3535,7 +3578,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="43"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -3551,7 +3594,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="43"/>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -3567,7 +3610,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="43"/>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -3583,37 +3626,21 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="43"/>
-      <c r="B129" s="21"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="42"/>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="44"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="46"/>
       <c r="E129" s="10"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="42"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="45" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="46"/>
       <c r="I129" s="10"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="21"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="44"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="45"/>
-      <c r="D130" s="46"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="45" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="46"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="16"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3630,10 +3657,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3656,28 +3683,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="40" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="40" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3690,7 +3717,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
@@ -3719,7 +3746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="D3" s="12"/>
@@ -3739,7 +3766,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -3754,10 +3781,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="41" t="s">
         <v>28</v>
       </c>
@@ -3777,7 +3804,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="40">
         <v>1</v>
       </c>
@@ -3803,7 +3830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="40">
         <v>2</v>
       </c>
@@ -3829,7 +3856,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="40">
         <v>3</v>
       </c>
@@ -3855,7 +3882,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="40">
         <v>4</v>
       </c>
@@ -3881,7 +3908,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="40">
         <v>5</v>
       </c>
@@ -3907,7 +3934,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="40">
         <v>6</v>
       </c>
@@ -3933,7 +3960,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="40">
         <v>7</v>
       </c>
@@ -3959,7 +3986,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="40">
         <v>8</v>
       </c>
@@ -3985,7 +4012,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="40">
         <v>9</v>
       </c>
@@ -4005,7 +4032,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="40">
         <v>10</v>
       </c>
@@ -4025,7 +4052,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="40">
         <v>11</v>
       </c>
@@ -4045,7 +4072,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="40">
         <v>12</v>
       </c>
@@ -4066,7 +4093,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="40">
         <v>13</v>
       </c>
@@ -4087,7 +4114,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="40">
         <v>14</v>
       </c>
@@ -4108,7 +4135,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="40">
         <v>15</v>
       </c>
@@ -4129,7 +4156,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="40">
         <v>16</v>
       </c>
@@ -4150,7 +4177,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="40">
         <v>17</v>
       </c>
@@ -4171,7 +4198,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="40">
         <v>18</v>
       </c>
@@ -4192,7 +4219,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="40">
         <v>19</v>
       </c>
@@ -4213,7 +4240,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="40">
         <v>20</v>
       </c>
@@ -4234,7 +4261,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="40">
         <v>21</v>
       </c>
@@ -4255,7 +4282,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="40">
         <v>22</v>
       </c>
@@ -4276,7 +4303,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="40">
         <v>23</v>
       </c>
@@ -4297,7 +4324,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="40">
         <v>24</v>
       </c>
@@ -4318,7 +4345,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="40">
         <v>25</v>
       </c>
@@ -4339,7 +4366,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="40">
         <v>26</v>
       </c>
@@ -4360,7 +4387,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="40">
         <v>27</v>
       </c>
@@ -4381,7 +4408,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="40">
         <v>28</v>
       </c>
@@ -4402,7 +4429,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="40">
         <v>29</v>
       </c>
@@ -4423,7 +4450,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="40">
         <v>30</v>
       </c>
@@ -4444,7 +4471,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="40">
         <v>31</v>
       </c>
@@ -4465,7 +4492,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="40">
         <v>32</v>
       </c>
@@ -4474,7 +4501,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="40">
         <v>33</v>
       </c>
@@ -4483,7 +4510,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="40">
         <v>34</v>
       </c>
@@ -4492,7 +4519,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="40">
         <v>35</v>
       </c>
@@ -4501,7 +4528,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="40">
         <v>36</v>
       </c>
@@ -4510,7 +4537,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="40">
         <v>37</v>
       </c>
@@ -4519,7 +4546,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="40">
         <v>38</v>
       </c>
@@ -4528,7 +4555,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="40">
         <v>39</v>
       </c>
@@ -4537,7 +4564,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="40">
         <v>40</v>
       </c>
@@ -4546,7 +4573,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="40">
         <v>41</v>
       </c>
@@ -4555,7 +4582,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="40">
         <v>42</v>
       </c>
@@ -4564,7 +4591,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="40">
         <v>43</v>
       </c>
@@ -4573,7 +4600,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="40">
         <v>44</v>
       </c>
@@ -4582,7 +4609,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="40">
         <v>45</v>
       </c>
@@ -4591,7 +4618,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="40">
         <v>46</v>
       </c>
@@ -4600,7 +4627,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="40">
         <v>47</v>
       </c>
@@ -4609,7 +4636,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="40">
         <v>48</v>
       </c>
@@ -4618,7 +4645,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="40">
         <v>49</v>
       </c>
@@ -4627,7 +4654,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="40">
         <v>50</v>
       </c>
@@ -4636,7 +4663,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="40">
         <v>51</v>
       </c>
@@ -4645,7 +4672,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="40">
         <v>52</v>
       </c>
@@ -4654,7 +4681,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="40">
         <v>53</v>
       </c>
@@ -4663,7 +4690,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="40">
         <v>54</v>
       </c>
@@ -4672,7 +4699,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="40">
         <v>55</v>
       </c>
@@ -4681,7 +4708,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="40">
         <v>56</v>
       </c>
@@ -4690,7 +4717,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="40">
         <v>57</v>
       </c>
@@ -4699,7 +4726,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="40">
         <v>58</v>
       </c>
@@ -4708,7 +4735,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="40">
         <v>59</v>
       </c>
@@ -4717,7 +4744,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="40">
         <v>60</v>
       </c>
@@ -4726,7 +4753,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/CONTRERAS, SARAH JANE.xlsx
+++ b/CONTRERAS, SARAH JANE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB7C479-AA74-4997-BA99-45A0F9C9E405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -235,12 +234,18 @@
   </si>
   <si>
     <t>SVL(5-0-0)</t>
+  </si>
+  <si>
+    <t>1/4,5/2023</t>
+  </si>
+  <si>
+    <t>4/3-5/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -922,25 +927,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1247,34 +1252,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A34" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1300,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1313,7 +1318,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1338,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1341,7 +1346,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1354,7 +1359,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -1371,7 +1376,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1415,7 +1420,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52</v>
+        <v>53.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1425,12 +1430,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>59</v>
+        <v>58.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -1452,7 +1457,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1472,7 +1477,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1492,7 +1497,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1518,7 +1523,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13">
@@ -1536,7 +1541,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43191</v>
       </c>
@@ -1556,7 +1561,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>43221</v>
       </c>
@@ -1576,7 +1581,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>43252</v>
       </c>
@@ -1596,7 +1601,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>43282</v>
       </c>
@@ -1616,7 +1621,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>43313</v>
       </c>
@@ -1636,7 +1641,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>43344</v>
       </c>
@@ -1656,7 +1661,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>43374</v>
       </c>
@@ -1676,7 +1681,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>43405</v>
       </c>
@@ -1696,7 +1701,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>43435</v>
       </c>
@@ -1720,7 +1725,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>47</v>
       </c>
@@ -1738,7 +1743,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43466</v>
       </c>
@@ -1758,7 +1763,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>43497</v>
       </c>
@@ -1782,7 +1787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>43525</v>
       </c>
@@ -1802,7 +1807,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>43556</v>
       </c>
@@ -1822,7 +1827,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43586</v>
       </c>
@@ -1842,7 +1847,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>43617</v>
       </c>
@@ -1862,7 +1867,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43647</v>
       </c>
@@ -1888,7 +1893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43678</v>
       </c>
@@ -1908,7 +1913,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43709</v>
       </c>
@@ -1928,7 +1933,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>43739</v>
       </c>
@@ -1954,7 +1959,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43770</v>
       </c>
@@ -1974,7 +1979,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>43800</v>
       </c>
@@ -1994,7 +1999,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>48</v>
       </c>
@@ -2012,7 +2017,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>43831</v>
       </c>
@@ -2038,7 +2043,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>43862</v>
       </c>
@@ -2058,7 +2063,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>43891</v>
       </c>
@@ -2078,7 +2083,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>43922</v>
       </c>
@@ -2098,7 +2103,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>43952</v>
       </c>
@@ -2124,7 +2129,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>43983</v>
       </c>
@@ -2144,7 +2149,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>44013</v>
       </c>
@@ -2164,7 +2169,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44044</v>
       </c>
@@ -2184,7 +2189,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44075</v>
       </c>
@@ -2204,7 +2209,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>44105</v>
       </c>
@@ -2224,7 +2229,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>44136</v>
       </c>
@@ -2244,7 +2249,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>44166</v>
       </c>
@@ -2264,7 +2269,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>49</v>
       </c>
@@ -2282,7 +2287,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>44197</v>
       </c>
@@ -2302,7 +2307,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>44228</v>
       </c>
@@ -2322,7 +2327,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>44256</v>
       </c>
@@ -2342,7 +2347,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>44287</v>
       </c>
@@ -2362,7 +2367,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44317</v>
       </c>
@@ -2382,7 +2387,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>44348</v>
       </c>
@@ -2402,7 +2407,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>44378</v>
       </c>
@@ -2422,7 +2427,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>44409</v>
       </c>
@@ -2442,7 +2447,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>44440</v>
       </c>
@@ -2462,7 +2467,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>44470</v>
       </c>
@@ -2482,7 +2487,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44501</v>
       </c>
@@ -2502,7 +2507,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>44531</v>
       </c>
@@ -2526,7 +2531,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
         <v>50</v>
       </c>
@@ -2544,7 +2549,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>44562</v>
       </c>
@@ -2564,7 +2569,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>44593</v>
       </c>
@@ -2584,7 +2589,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>44621</v>
       </c>
@@ -2604,7 +2609,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>44652</v>
       </c>
@@ -2624,7 +2629,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>44682</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>44713</v>
       </c>
@@ -2670,7 +2675,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>44743</v>
       </c>
@@ -2696,7 +2701,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>44774</v>
       </c>
@@ -2716,7 +2721,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>44805</v>
       </c>
@@ -2736,7 +2741,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>44835</v>
       </c>
@@ -2756,7 +2761,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>44866</v>
       </c>
@@ -2776,7 +2781,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="41">
         <v>44896</v>
       </c>
@@ -2802,7 +2807,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>54</v>
       </c>
@@ -2820,11 +2825,13 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>44927</v>
       </c>
-      <c r="B77" s="20"/>
+      <c r="B77" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
@@ -2835,12 +2842,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H77" s="40"/>
+      <c r="H77" s="40">
+        <v>2</v>
+      </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>44958</v>
       </c>
@@ -2860,23 +2871,31 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="41"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="41">
+        <v>44986</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="40"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K79" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2892,7 +2911,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2908,7 +2927,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2924,7 +2943,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2940,7 +2959,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2956,7 +2975,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2972,7 +2991,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2988,7 +3007,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3004,7 +3023,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3020,7 +3039,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3036,7 +3055,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3052,7 +3071,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3068,7 +3087,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3084,7 +3103,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3100,7 +3119,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3116,7 +3135,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3132,7 +3151,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3148,7 +3167,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3164,7 +3183,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3180,7 +3199,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3196,7 +3215,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3212,7 +3231,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3228,7 +3247,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3244,7 +3263,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3260,7 +3279,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3276,7 +3295,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3292,7 +3311,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3308,7 +3327,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3324,7 +3343,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3340,7 +3359,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3356,7 +3375,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="41"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3372,7 +3391,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3388,7 +3407,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3404,7 +3423,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="41"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3420,7 +3439,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3436,7 +3455,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3452,7 +3471,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3468,7 +3487,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="41"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3484,7 +3503,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="41"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3500,7 +3519,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="41"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3516,7 +3535,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="41"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3532,7 +3551,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3548,7 +3567,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="41"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3564,7 +3583,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="41"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3580,7 +3599,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3596,7 +3615,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="41"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3612,7 +3631,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="41"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3628,7 +3647,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3644,7 +3663,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3660,7 +3679,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
       <c r="B129" s="15"/>
       <c r="C129" s="43"/>
@@ -3691,10 +3710,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3717,28 +3736,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -3751,7 +3770,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3780,7 +3799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3800,7 +3819,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -3815,10 +3834,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -3838,7 +3857,7 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -3864,7 +3883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -3890,7 +3909,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -3916,7 +3935,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -3942,7 +3961,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -3968,7 +3987,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -3994,7 +4013,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -4020,7 +4039,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -4046,7 +4065,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -4066,7 +4085,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -4086,7 +4105,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -4106,7 +4125,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -4127,7 +4146,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -4148,7 +4167,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -4169,7 +4188,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -4190,7 +4209,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -4211,7 +4230,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -4232,7 +4251,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -4253,7 +4272,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -4274,7 +4293,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -4295,7 +4314,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -4316,7 +4335,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -4337,7 +4356,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -4358,7 +4377,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -4379,7 +4398,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -4400,7 +4419,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -4421,7 +4440,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -4442,7 +4461,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -4463,7 +4482,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -4484,7 +4503,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -4505,7 +4524,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -4526,7 +4545,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -4535,7 +4554,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -4544,7 +4563,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -4553,7 +4572,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -4562,7 +4581,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -4571,7 +4590,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -4580,7 +4599,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -4589,7 +4608,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -4598,7 +4617,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -4607,7 +4626,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -4616,7 +4635,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -4625,7 +4644,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -4634,7 +4653,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -4643,7 +4662,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -4652,7 +4671,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -4661,7 +4680,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -4670,7 +4689,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -4679,7 +4698,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -4688,7 +4707,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -4697,7 +4716,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -4706,7 +4725,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -4715,7 +4734,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -4724,7 +4743,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -4733,7 +4752,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -4742,7 +4761,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -4751,7 +4770,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -4760,7 +4779,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -4769,7 +4788,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -4778,7 +4797,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -4787,7 +4806,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/CONTRERAS, SARAH JANE.xlsx
+++ b/CONTRERAS, SARAH JANE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>4/3-5/2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>5/24,29,30/2023</t>
   </si>
 </sst>
 </file>
@@ -1259,9 +1265,9 @@
   <dimension ref="A2:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1426,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>53.25</v>
+        <v>55.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1430,7 +1436,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58.25</v>
+        <v>56.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2896,15 +2902,19 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
+      <c r="A80" s="41">
+        <v>45017</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="40"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="40"/>
       <c r="I80" s="9"/>
@@ -2912,24 +2922,38 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="A81" s="41">
+        <v>45047</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="40"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="40"/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H81" s="40">
+        <v>3</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
-      <c r="B82" s="20"/>
+      <c r="A82" s="41">
+        <v>45078</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C82" s="13"/>
       <c r="D82" s="40"/>
       <c r="E82" s="9"/>
@@ -2938,13 +2962,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="40"/>
+      <c r="H82" s="40">
+        <v>1</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="48">
+        <v>45077</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
+      <c r="A83" s="41">
+        <v>45108</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="40"/>
@@ -2960,7 +2990,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
+      <c r="A84" s="41">
+        <v>45139</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="40"/>
@@ -2976,7 +3008,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="41"/>
+      <c r="A85" s="41">
+        <v>45170</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="40"/>
@@ -2992,7 +3026,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="41"/>
+      <c r="A86" s="41">
+        <v>45200</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="40"/>
@@ -3008,7 +3044,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="41"/>
+      <c r="A87" s="41">
+        <v>45231</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="40"/>
@@ -3024,7 +3062,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="41"/>
+      <c r="A88" s="41">
+        <v>45261</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="40"/>
@@ -3040,7 +3080,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="41"/>
+      <c r="A89" s="41">
+        <v>45292</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="40"/>
@@ -3056,7 +3098,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="41"/>
+      <c r="A90" s="41">
+        <v>45323</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="40"/>
@@ -3072,7 +3116,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
+      <c r="A91" s="41">
+        <v>45352</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="40"/>
@@ -3088,7 +3134,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
+      <c r="A92" s="41">
+        <v>45383</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="40"/>
@@ -3104,7 +3152,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
+      <c r="A93" s="41">
+        <v>45413</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="40"/>
@@ -3120,7 +3170,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
+      <c r="A94" s="41">
+        <v>45444</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="40"/>
@@ -3136,7 +3188,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
+      <c r="A95" s="41">
+        <v>45474</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="40"/>
@@ -3152,7 +3206,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="41"/>
+      <c r="A96" s="41">
+        <v>45505</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="40"/>
@@ -3168,7 +3224,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="41"/>
+      <c r="A97" s="41">
+        <v>45536</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="40"/>
@@ -3184,7 +3242,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="41"/>
+      <c r="A98" s="41">
+        <v>45566</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="40"/>
@@ -3200,7 +3260,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="41"/>
+      <c r="A99" s="41">
+        <v>45597</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="40"/>
@@ -3216,7 +3278,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="41"/>
+      <c r="A100" s="41">
+        <v>45627</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="40"/>
@@ -3232,7 +3296,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
+      <c r="A101" s="41">
+        <v>45658</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="40"/>
@@ -3248,7 +3314,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="41"/>
+      <c r="A102" s="41">
+        <v>45689</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="40"/>
@@ -3264,7 +3332,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="41"/>
+      <c r="A103" s="41">
+        <v>45717</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="40"/>
@@ -3280,7 +3350,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="41"/>
+      <c r="A104" s="41">
+        <v>45748</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="40"/>
@@ -3296,7 +3368,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="41"/>
+      <c r="A105" s="41">
+        <v>45778</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="40"/>
@@ -3312,7 +3386,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="41"/>
+      <c r="A106" s="41">
+        <v>45809</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="40"/>
@@ -3328,7 +3404,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="41"/>
+      <c r="A107" s="41">
+        <v>45839</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="40"/>
@@ -3344,7 +3422,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="41"/>
+      <c r="A108" s="41">
+        <v>45870</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="40"/>
@@ -3360,7 +3440,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="41"/>
+      <c r="A109" s="41">
+        <v>45901</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="40"/>
@@ -3376,7 +3458,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="41"/>
+      <c r="A110" s="41">
+        <v>45931</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="40"/>
